--- a/[Year 1] Probability and Statistics/TeachingPlan22-23.xlsx
+++ b/[Year 1] Probability and Statistics/TeachingPlan22-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Almut_Documents\ImperialCollege\Teaching2022-2023\ProbabilityAndStatistics_MATH40005\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7B53AA-9D4D-4F65-92F4-7EC96F8BBBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC61016B-9C13-4ABF-8DA1-675BA29A6761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D378B1B-40ED-406A-A0D4-99745DE7ADED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
   <si>
     <t>Session number</t>
   </si>
@@ -152,15 +152,9 @@
     <t>Expectation of random variable, variance, LOTUS</t>
   </si>
   <si>
-    <t>11.1,11.2, 11.3</t>
-  </si>
-  <si>
     <t>Multivariate random variables and independence</t>
   </si>
   <si>
-    <t>11.4, 11.5, 11.6</t>
-  </si>
-  <si>
     <t>Multivariate random variables: 2D LOTUS, linearity of expectation, covariance  (includes reading material)</t>
   </si>
   <si>
@@ -170,15 +164,9 @@
     <t>Generating functions: Mgf</t>
   </si>
   <si>
-    <t>13.1, 13.2</t>
-  </si>
-  <si>
     <t>Conditional distribution and conditional expectation</t>
   </si>
   <si>
-    <t>13.2 (cont'd)</t>
-  </si>
-  <si>
     <t>Teaching plan: MATH40005 Probability and Statistics, Academic Year 2022-2023</t>
   </si>
   <si>
@@ -207,6 +195,24 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Bridging lecture</t>
+  </si>
+  <si>
+    <t>Please review the material (Chapter 11 and three mini-videos) in your own time during Week 9. The material is needed for Lecture 15 in Week 10.</t>
+  </si>
+  <si>
+    <t>12.1,12.2, 12.3</t>
+  </si>
+  <si>
+    <t>12.4, 12.5, 12.6</t>
+  </si>
+  <si>
+    <t>14.1, 14.2</t>
+  </si>
+  <si>
+    <t>14.2 (cont'd)</t>
   </si>
 </sst>
 </file>
@@ -243,7 +249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +286,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -293,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -316,6 +328,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -632,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2838A05-8132-4B08-8784-3A9E3797F774}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +668,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -735,7 +752,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" t="s">
@@ -820,7 +837,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" t="s">
@@ -905,7 +922,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" t="s">
@@ -987,16 +1004,16 @@
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E17" s="12">
         <v>44889</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I17" s="13"/>
     </row>
@@ -1005,7 +1022,7 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="10" t="s">
@@ -1069,7 +1086,7 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" t="s">
@@ -1100,215 +1117,218 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23">
-        <v>15</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" t="s">
-        <v>39</v>
-      </c>
+    <row r="23" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" t="s">
         <v>9</v>
       </c>
       <c r="G24">
-        <v>16</v>
-      </c>
-      <c r="I24" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26">
-        <v>17</v>
-      </c>
-      <c r="I26" s="5">
-        <v>12.1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>7</v>
-      </c>
-      <c r="C27">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" t="s">
         <v>9</v>
       </c>
       <c r="G27">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I27" s="5">
-        <v>12.2</v>
+        <v>13.1</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" t="s">
         <v>9</v>
       </c>
       <c r="G28">
-        <v>19</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>44</v>
+        <v>18</v>
+      </c>
+      <c r="I28" s="5">
+        <v>13.2</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29">
-        <v>7</v>
-      </c>
-      <c r="I29" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <v>19</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30">
+        <v>12</v>
+      </c>
+      <c r="H30">
+        <v>7</v>
+      </c>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31">
         <v>20</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H31" s="4"/>
+      <c r="I31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J31" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="7"/>
       <c r="E34" s="8"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
+      <c r="C35" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="D35" s="7"/>
       <c r="E35" s="8"/>
     </row>
@@ -1319,6 +1339,13 @@
       <c r="D36" s="7"/>
       <c r="E36" s="8"/>
     </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
